--- a/data/trans_orig/Q4505_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q4505_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>141596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119575</v>
+        <v>121910</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>161090</v>
+        <v>162788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2424000815566123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2047020743049796</v>
+        <v>0.2086991277836813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2757728237578517</v>
+        <v>0.2786788850897524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -764,19 +764,19 @@
         <v>221639</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195994</v>
+        <v>196610</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>249164</v>
+        <v>248908</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2405284483001146</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2126978614143659</v>
+        <v>0.2133659086412724</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2703987319073595</v>
+        <v>0.2701209695826416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>350</v>
@@ -785,19 +785,19 @@
         <v>363235</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>333621</v>
+        <v>331192</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>398248</v>
+        <v>399139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2412545987927556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2215852571376131</v>
+        <v>0.2199721752957722</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2645098750598408</v>
+        <v>0.2651012539078174</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>115003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95984</v>
+        <v>98248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136847</v>
+        <v>138652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1968754024243464</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1643167074637231</v>
+        <v>0.1681925566260208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2342709039731437</v>
+        <v>0.2373607082582411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -835,19 +835,19 @@
         <v>169689</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>148175</v>
+        <v>145066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194340</v>
+        <v>194051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1841511021163003</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1608030415336212</v>
+        <v>0.1574296767709555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2109024656817323</v>
+        <v>0.2105894311524256</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>276</v>
@@ -856,19 +856,19 @@
         <v>284692</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254201</v>
+        <v>255930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>316331</v>
+        <v>316132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1890878368666169</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1688362779385652</v>
+        <v>0.1699845412735293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2101014316557585</v>
+        <v>0.2099693971788964</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>233104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>210925</v>
+        <v>210708</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>260122</v>
+        <v>257802</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3990550811930378</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3610858120502141</v>
+        <v>0.3607148490994774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4453064869202544</v>
+        <v>0.4413352769994279</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>389</v>
@@ -906,19 +906,19 @@
         <v>403683</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>373556</v>
+        <v>373411</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>435325</v>
+        <v>432292</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4380871029076571</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4053923332788328</v>
+        <v>0.4052352349450213</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4724260227530634</v>
+        <v>0.4691343319375462</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>615</v>
@@ -927,19 +927,19 @@
         <v>636788</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>595233</v>
+        <v>600134</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>675898</v>
+        <v>674596</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.422943579624744</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3953434645071892</v>
+        <v>0.3985990251091896</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4489196776554938</v>
+        <v>0.4480554068955458</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>25574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17320</v>
+        <v>16880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37841</v>
+        <v>37960</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04377995857754744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02964985155998382</v>
+        <v>0.02889716219090289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06478034101886472</v>
+        <v>0.06498503800926023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -977,19 +977,19 @@
         <v>38127</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27312</v>
+        <v>26832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52262</v>
+        <v>51780</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04137657698932773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02963933037671685</v>
+        <v>0.02911853437110669</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05671571284641709</v>
+        <v>0.05619292252945817</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -998,19 +998,19 @@
         <v>63701</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49445</v>
+        <v>49225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81325</v>
+        <v>80921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04230903355806596</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03284020242097842</v>
+        <v>0.03269424332832399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05401472984061074</v>
+        <v>0.05374625319096721</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>68864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54013</v>
+        <v>55691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85222</v>
+        <v>85658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1178894762484561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09246626118619153</v>
+        <v>0.09533796742708076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1458935527658939</v>
+        <v>0.1466390498425266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -1048,19 +1048,19 @@
         <v>88329</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70793</v>
+        <v>71311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107604</v>
+        <v>106927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09585676968660034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07682669205552811</v>
+        <v>0.07738864995003299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1167747144187609</v>
+        <v>0.1160400673338869</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>156</v>
@@ -1069,19 +1069,19 @@
         <v>157193</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134007</v>
+        <v>134097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>180382</v>
+        <v>184060</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1044049511578175</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08900488411141344</v>
+        <v>0.08906500432502046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1198065536381464</v>
+        <v>0.1222497068618207</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>216512</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>190597</v>
+        <v>189716</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>245950</v>
+        <v>242648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2012390699055759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1771521680609505</v>
+        <v>0.1763339010411154</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2286004850227307</v>
+        <v>0.2255318362672305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -1194,19 +1194,19 @@
         <v>256024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>227128</v>
+        <v>228551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>282591</v>
+        <v>285932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2423331422514283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2149830303790711</v>
+        <v>0.2163296925228281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2674792899444119</v>
+        <v>0.2706425427843215</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>457</v>
@@ -1215,19 +1215,19 @@
         <v>472535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>431835</v>
+        <v>433916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>509207</v>
+        <v>513042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2215991933480244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2025121816448571</v>
+        <v>0.2034882436696249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2387965677977021</v>
+        <v>0.2405952547060084</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>257051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>229679</v>
+        <v>227630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289470</v>
+        <v>285804</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2389185113805287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2134773476043353</v>
+        <v>0.2115727762312581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2690510531868338</v>
+        <v>0.2656432903975813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -1265,19 +1265,19 @@
         <v>291797</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264131</v>
+        <v>262917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>321383</v>
+        <v>324008</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.276193906285965</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2500066237260717</v>
+        <v>0.2488581086877303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3041970269803386</v>
+        <v>0.3066823803358999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>537</v>
@@ -1286,19 +1286,19 @@
         <v>548848</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>509117</v>
+        <v>507938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591038</v>
+        <v>593960</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2573866650172245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2387544993244291</v>
+        <v>0.2382017016752227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2771718962374853</v>
+        <v>0.2785421085551016</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>455451</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>422174</v>
+        <v>418643</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>487350</v>
+        <v>486271</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4233240185041459</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3923940595058014</v>
+        <v>0.3891117165227898</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.452972156846251</v>
+        <v>0.4519694871585104</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>376</v>
@@ -1336,19 +1336,19 @@
         <v>381322</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>351764</v>
+        <v>350551</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>417268</v>
+        <v>412229</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3609309420722789</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3329534454066522</v>
+        <v>0.3318054863050179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3949552463422613</v>
+        <v>0.390185376268201</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>824</v>
@@ -1357,19 +1357,19 @@
         <v>836773</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>790563</v>
+        <v>791296</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>881816</v>
+        <v>884053</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3924112696430527</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3707407028236812</v>
+        <v>0.3710845712014508</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4135344379251338</v>
+        <v>0.4145834769397387</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>59654</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45606</v>
+        <v>46748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76369</v>
+        <v>76688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05544616540157501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04238924825339406</v>
+        <v>0.04345016914726586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0709820639538024</v>
+        <v>0.07127882182229804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -1407,19 +1407,19 @@
         <v>55212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41702</v>
+        <v>42818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72872</v>
+        <v>72051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05225990122670735</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03947175838035979</v>
+        <v>0.04052802066064652</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06897518265761286</v>
+        <v>0.06819859709671917</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -1428,19 +1428,19 @@
         <v>114866</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95553</v>
+        <v>94386</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136217</v>
+        <v>138636</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05386752575314639</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04481021588030959</v>
+        <v>0.04426287054634218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06387980556606704</v>
+        <v>0.06501426601930001</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>87225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70813</v>
+        <v>69843</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106609</v>
+        <v>106062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08107223480817444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06581821405981655</v>
+        <v>0.06491588819343851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09908841218240712</v>
+        <v>0.09858070567265617</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -1478,19 +1478,19 @@
         <v>72140</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56626</v>
+        <v>56541</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90133</v>
+        <v>90286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06828210816362042</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05359769138986691</v>
+        <v>0.05351755384330067</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0853131808580652</v>
+        <v>0.08545771786074523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>153</v>
@@ -1499,19 +1499,19 @@
         <v>159365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135163</v>
+        <v>136557</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183981</v>
+        <v>187443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07473534623855202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06338566942599826</v>
+        <v>0.06403946245996867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08627930899695685</v>
+        <v>0.08790291715383408</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>209383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>182276</v>
+        <v>183278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>234735</v>
+        <v>233805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1868322564314753</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1626446061920667</v>
+        <v>0.1635389538840814</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2094540328080858</v>
+        <v>0.208624677122344</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -1624,19 +1624,19 @@
         <v>222716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>196413</v>
+        <v>196690</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248671</v>
+        <v>249251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2247668504801512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1982221131843403</v>
+        <v>0.1985014252773355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2509615887161741</v>
+        <v>0.2515463541911558</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>424</v>
@@ -1645,19 +1645,19 @@
         <v>432098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>394754</v>
+        <v>395123</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>471267</v>
+        <v>469213</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2046333960833948</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1869477691648516</v>
+        <v>0.1871225186043345</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2231831659134375</v>
+        <v>0.2222104392688697</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>308297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>279330</v>
+        <v>276956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>340147</v>
+        <v>336420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2750939061425412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2492458676061258</v>
+        <v>0.2471280232299286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3035128595800222</v>
+        <v>0.3001874041740492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>230</v>
@@ -1695,19 +1695,19 @@
         <v>237999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210028</v>
+        <v>212264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>266413</v>
+        <v>264429</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2401914763987277</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2119620859251832</v>
+        <v>0.2142185470123797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2688668705431829</v>
+        <v>0.2668646524594313</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>538</v>
@@ -1716,19 +1716,19 @@
         <v>546297</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>502465</v>
+        <v>505698</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>586915</v>
+        <v>588761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2587156360795031</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2379576202989146</v>
+        <v>0.2394890637109387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2779514818468978</v>
+        <v>0.2788258777575506</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>455821</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>423790</v>
+        <v>425367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>490762</v>
+        <v>490182</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4067290957045503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3781476340395809</v>
+        <v>0.3795546928235928</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4379072274668301</v>
+        <v>0.4373896042431206</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>399</v>
@@ -1766,19 +1766,19 @@
         <v>398590</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>367233</v>
+        <v>370292</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>432810</v>
+        <v>430606</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4022611772080992</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3706148954983984</v>
+        <v>0.3737020603055319</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.43679668946295</v>
+        <v>0.4345718885032314</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>844</v>
@@ -1787,19 +1787,19 @@
         <v>854411</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>809961</v>
+        <v>809839</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>900032</v>
+        <v>900965</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4046324859185943</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3835819827236718</v>
+        <v>0.383524339508143</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4262377099038179</v>
+        <v>0.4266796864377633</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>57936</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45001</v>
+        <v>43813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77771</v>
+        <v>74998</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05169598571679866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04015460066902481</v>
+        <v>0.03909444920292917</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06939505601236318</v>
+        <v>0.06692034009539805</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -1837,19 +1837,19 @@
         <v>66871</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52790</v>
+        <v>51995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83337</v>
+        <v>84498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06748702918036638</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05327654824082126</v>
+        <v>0.05247347766901427</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08410467358064021</v>
+        <v>0.08527663621635619</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -1858,19 +1858,19 @@
         <v>124807</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104037</v>
+        <v>102877</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147264</v>
+        <v>146362</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05910607081178627</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04926974267973282</v>
+        <v>0.0487203924046955</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06974136080790011</v>
+        <v>0.06931414815694248</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>89262</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71866</v>
+        <v>71721</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108964</v>
+        <v>110315</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0796487560046346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06412599930403673</v>
+        <v>0.06399677042100767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09722872894018521</v>
+        <v>0.09843377047823768</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -1908,19 +1908,19 @@
         <v>64698</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50002</v>
+        <v>51310</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>80392</v>
+        <v>81150</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0652934667326556</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05046299679129695</v>
+        <v>0.05178211892215441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08113250630428666</v>
+        <v>0.08189751258453802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>152</v>
@@ -1929,19 +1929,19 @@
         <v>153960</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132329</v>
+        <v>131469</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>180968</v>
+        <v>178740</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07291241110672157</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06266853803271798</v>
+        <v>0.06226122832542501</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08570301495723653</v>
+        <v>0.08464760619757242</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>142530</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>123491</v>
+        <v>121795</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>162664</v>
+        <v>161607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3187161180437541</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2761422584672375</v>
+        <v>0.2723492052199651</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3637389662759068</v>
+        <v>0.3613753767237781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -2054,19 +2054,19 @@
         <v>100452</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>83479</v>
+        <v>84008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>116677</v>
+        <v>118221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2954422809644699</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2455200196627985</v>
+        <v>0.2470770741314048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.343160221185222</v>
+        <v>0.3477028147258392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>238</v>
@@ -2075,19 +2075,19 @@
         <v>242982</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>217586</v>
+        <v>216609</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>269234</v>
+        <v>269638</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.30866377555156</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2764029434526488</v>
+        <v>0.2751614491783161</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3420116273984011</v>
+        <v>0.3425252093150399</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>130187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>113255</v>
+        <v>109335</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>148576</v>
+        <v>148560</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2911166022304922</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2532544168111357</v>
+        <v>0.2444872670679565</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3322370521436233</v>
+        <v>0.3321994994990689</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>86</v>
@@ -2125,19 +2125,19 @@
         <v>86076</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70532</v>
+        <v>70867</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103354</v>
+        <v>103056</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2531605226235188</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2074433030330029</v>
+        <v>0.208429461162185</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3039746793768807</v>
+        <v>0.3030997148792165</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>215</v>
@@ -2146,19 +2146,19 @@
         <v>216264</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>191897</v>
+        <v>191777</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>241633</v>
+        <v>244001</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2747227643527712</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2437696667404555</v>
+        <v>0.2436169923628751</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.30694971118722</v>
+        <v>0.3099581707704541</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>134582</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116407</v>
+        <v>115139</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155113</v>
+        <v>156463</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3009443160884926</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2603009592031528</v>
+        <v>0.2574660928079107</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3468546794224442</v>
+        <v>0.3498735475724943</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>107</v>
@@ -2196,19 +2196,19 @@
         <v>107313</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90587</v>
+        <v>89588</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127067</v>
+        <v>124614</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3156210313452644</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2664254834869763</v>
+        <v>0.2634872818939064</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.373719066205594</v>
+        <v>0.3665050543003849</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>237</v>
@@ -2217,19 +2217,19 @@
         <v>241896</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>216567</v>
+        <v>215038</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>266765</v>
+        <v>267489</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3072834241573035</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2751079431785427</v>
+        <v>0.2731660362226567</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3388756930617167</v>
+        <v>0.3397943931590413</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>19306</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12214</v>
+        <v>11724</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29955</v>
+        <v>30040</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04317160547829101</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.027312697657838</v>
+        <v>0.02621574928428367</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06698354279608151</v>
+        <v>0.06717296723377544</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2267,19 +2267,19 @@
         <v>16551</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9515</v>
+        <v>9788</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25675</v>
+        <v>27233</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0486769795705207</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0279855436660815</v>
+        <v>0.02878672649693924</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07551188513306732</v>
+        <v>0.0800943837450601</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -2288,19 +2288,19 @@
         <v>35857</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25824</v>
+        <v>25452</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49921</v>
+        <v>48966</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04554946460543958</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03280419673306567</v>
+        <v>0.03233247652544893</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06341530486856145</v>
+        <v>0.06220271772377816</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>20594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13011</v>
+        <v>12856</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29885</v>
+        <v>30614</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04605135815897005</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02909349100024398</v>
+        <v>0.02874674973540477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06682800392177379</v>
+        <v>0.06845639899449485</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>29</v>
@@ -2338,19 +2338,19 @@
         <v>29614</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19824</v>
+        <v>20640</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41497</v>
+        <v>42895</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08709918549622614</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05830339929777289</v>
+        <v>0.06070557262435226</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1220464649483526</v>
+        <v>0.1261591208476687</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>50</v>
@@ -2359,19 +2359,19 @@
         <v>50209</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38227</v>
+        <v>37719</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64621</v>
+        <v>66414</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0637805713329257</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04855994104508119</v>
+        <v>0.04791551589160706</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08208840763942885</v>
+        <v>0.08436653569817755</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>710020</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>669409</v>
+        <v>663925</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>761023</v>
+        <v>758743</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2199612215035725</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2073802670526659</v>
+        <v>0.2056813571515506</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2357618541011468</v>
+        <v>0.2350552993782193</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>770</v>
@@ -2484,19 +2484,19 @@
         <v>800831</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>744623</v>
+        <v>749067</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>851279</v>
+        <v>851402</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2420274599990572</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2250402257223442</v>
+        <v>0.2263833474997384</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2572738156042825</v>
+        <v>0.2573109653007411</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1469</v>
@@ -2505,19 +2505,19 @@
         <v>1510851</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1448779</v>
+        <v>1443532</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1581608</v>
+        <v>1582360</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2311309061810609</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2216350777919409</v>
+        <v>0.2208324848952682</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2419552851689182</v>
+        <v>0.2420703638072884</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>810538</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>759676</v>
+        <v>759574</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>855698</v>
+        <v>858233</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2511014046470009</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2353445529730094</v>
+        <v>0.2353128549073159</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2650918427171548</v>
+        <v>0.2658769278386343</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>763</v>
@@ -2555,19 +2555,19 @@
         <v>785562</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>735293</v>
+        <v>738752</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>833362</v>
+        <v>834250</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2374130392365828</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2222205974732211</v>
+        <v>0.2232659236611827</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2518589015360523</v>
+        <v>0.2521275246376569</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1566</v>
@@ -2576,19 +2576,19 @@
         <v>1596101</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1525022</v>
+        <v>1529120</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1666704</v>
+        <v>1664274</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2441725062116878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2332988493290465</v>
+        <v>0.2339256510614636</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2549734751237536</v>
+        <v>0.2546015840190237</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1278959</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1222383</v>
+        <v>1220259</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1334673</v>
+        <v>1332337</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3962160947151037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3786892860058011</v>
+        <v>0.3780310556848618</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4134760894818075</v>
+        <v>0.4127524724081145</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1271</v>
@@ -2626,19 +2626,19 @@
         <v>1290908</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1236598</v>
+        <v>1235766</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1345630</v>
+        <v>1344876</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3901388007671876</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3737251412130683</v>
+        <v>0.3734736796328417</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4066770345989584</v>
+        <v>0.4064489106311935</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2520</v>
@@ -2647,19 +2647,19 @@
         <v>2569867</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2493367</v>
+        <v>2491268</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2651831</v>
+        <v>2644389</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3931398360630221</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3814368655466306</v>
+        <v>0.3811157076273035</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.405678768576302</v>
+        <v>0.4045402186716939</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>162470</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>138282</v>
+        <v>137612</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>187490</v>
+        <v>190349</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05033245459624214</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0428392901946766</v>
+        <v>0.0426315260971564</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05808348873439604</v>
+        <v>0.05896937168789089</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>174</v>
@@ -2697,19 +2697,19 @@
         <v>176761</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>150862</v>
+        <v>153170</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>203603</v>
+        <v>202199</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05342082525923345</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04559360439549333</v>
+        <v>0.04629114581273491</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06153309960648406</v>
+        <v>0.06110856807722702</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>327</v>
@@ -2718,19 +2718,19 @@
         <v>339231</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>305867</v>
+        <v>303003</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>377814</v>
+        <v>379294</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0518957535010318</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04679176959532844</v>
+        <v>0.0463536171295262</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05779822911252005</v>
+        <v>0.0580246601088386</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>265946</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>234999</v>
+        <v>233256</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>299441</v>
+        <v>296690</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08238882453808083</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07280156465634945</v>
+        <v>0.07226160198347846</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09276546169568468</v>
+        <v>0.09191327369256029</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>250</v>
@@ -2768,19 +2768,19 @@
         <v>254780</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>224734</v>
+        <v>226666</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>287737</v>
+        <v>286370</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0769998747379389</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06791928042030493</v>
+        <v>0.06850313361503303</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08696006600476427</v>
+        <v>0.08654701792957484</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>511</v>
@@ -2789,19 +2789,19 @@
         <v>520726</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>479901</v>
+        <v>482548</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>564057</v>
+        <v>562672</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07966099804319743</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07341560561937151</v>
+        <v>0.07382049033327232</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08628972681185414</v>
+        <v>0.08607786790598666</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>371890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>338662</v>
+        <v>340764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>401004</v>
+        <v>408584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3565901325969946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.324729360604906</v>
+        <v>0.3267449385754557</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3845072016781819</v>
+        <v>0.3917753319167899</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>408</v>
@@ -3154,19 +3154,19 @@
         <v>448494</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>414553</v>
+        <v>414481</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>481466</v>
+        <v>480596</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4034942927487183</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3729590790779465</v>
+        <v>0.3728943034681783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4331581319035621</v>
+        <v>0.4323756911837285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>752</v>
@@ -3175,19 +3175,19 @@
         <v>820384</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>774892</v>
+        <v>773994</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>869859</v>
+        <v>867405</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3807891780745552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3596739976936522</v>
+        <v>0.3592570308326843</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4037537547966011</v>
+        <v>0.402614682407101</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>331105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302010</v>
+        <v>298630</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362200</v>
+        <v>362352</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3174837158742145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.289585494363031</v>
+        <v>0.2863442216700001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3472993426841832</v>
+        <v>0.3474452857637281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>295</v>
@@ -3225,19 +3225,19 @@
         <v>316414</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288487</v>
+        <v>288304</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>348970</v>
+        <v>350297</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2846669916406837</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2595415292365287</v>
+        <v>0.2593768560927954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3139559161808783</v>
+        <v>0.3151503270769698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>609</v>
@@ -3246,19 +3246,19 @@
         <v>647520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>602990</v>
+        <v>602699</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>686805</v>
+        <v>691990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3005527357738791</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2798837501318107</v>
+        <v>0.2797488849896128</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3187871267816289</v>
+        <v>0.3211939062797626</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>190532</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>168687</v>
+        <v>167077</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>218755</v>
+        <v>218421</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1826935850537445</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1617468711653282</v>
+        <v>0.1602036527543125</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2097551815749146</v>
+        <v>0.2094353997324511</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>185</v>
@@ -3296,19 +3296,19 @@
         <v>199996</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>174127</v>
+        <v>176074</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>226229</v>
+        <v>229126</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1799290997984005</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1566562543989878</v>
+        <v>0.1584076471268483</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2035301559609117</v>
+        <v>0.206136249224181</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>368</v>
@@ -3317,19 +3317,19 @@
         <v>390528</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>354784</v>
+        <v>356388</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>432339</v>
+        <v>427152</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1812673170169709</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1646766639093565</v>
+        <v>0.1654209497937218</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2006745836112564</v>
+        <v>0.1982668998149191</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>24258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16879</v>
+        <v>15834</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34978</v>
+        <v>34492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02325995822268527</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01618471558740068</v>
+        <v>0.01518305163019422</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03353906981965</v>
+        <v>0.03307325810106133</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3367,19 +3367,19 @@
         <v>23896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16557</v>
+        <v>15244</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36326</v>
+        <v>35478</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02149861725116435</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01489597375804744</v>
+        <v>0.01371423006256452</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03268165981009433</v>
+        <v>0.03191861929372443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -3388,19 +3388,19 @@
         <v>48154</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35263</v>
+        <v>35951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62629</v>
+        <v>63282</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02235123775666581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01636752895609309</v>
+        <v>0.01668712424876422</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02907000699547995</v>
+        <v>0.02937293799820028</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>125120</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104530</v>
+        <v>103385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148740</v>
+        <v>149010</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1199726082523611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1002295631836271</v>
+        <v>0.09913194518510822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1426204918730677</v>
+        <v>0.1428802148038014</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -3438,19 +3438,19 @@
         <v>122725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>101465</v>
+        <v>100654</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>143884</v>
+        <v>146159</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1104109985610332</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09128423369934903</v>
+        <v>0.09055526957096255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1294474719397994</v>
+        <v>0.1314941535250627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>225</v>
@@ -3459,19 +3459,19 @@
         <v>247845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>219756</v>
+        <v>218761</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>281552</v>
+        <v>280413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.115039531377929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1020017086611928</v>
+        <v>0.1015402621831919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.130685259167263</v>
+        <v>0.1301566137950586</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>324451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>294782</v>
+        <v>295572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>354067</v>
+        <v>356468</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3333211768128118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3028413505322447</v>
+        <v>0.3036532401459223</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3637472339043041</v>
+        <v>0.3662133381913253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>412</v>
@@ -3584,19 +3584,19 @@
         <v>442874</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>408708</v>
+        <v>411846</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>475715</v>
+        <v>476660</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4062450619717444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3749045079084374</v>
+        <v>0.3777831161129786</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4363695769999552</v>
+        <v>0.4372369081188464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>715</v>
@@ -3605,19 +3605,19 @@
         <v>767325</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>726755</v>
+        <v>724213</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>816057</v>
+        <v>816675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3718465119046238</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.352186451070079</v>
+        <v>0.350954276072426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3954620162462748</v>
+        <v>0.3957615278196332</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>314131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>284589</v>
+        <v>283390</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>346414</v>
+        <v>344162</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.322718922920343</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2923691648336088</v>
+        <v>0.2911382264194778</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3558850372147638</v>
+        <v>0.3535712187016739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -3655,19 +3655,19 @@
         <v>333312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302043</v>
+        <v>302181</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>364352</v>
+        <v>364130</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3057445740256795</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2770612852972753</v>
+        <v>0.2771879015261948</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3342171913499064</v>
+        <v>0.3340132533512258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>616</v>
@@ -3676,19 +3676,19 @@
         <v>647443</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>603218</v>
+        <v>604076</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>690391</v>
+        <v>692240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3137514566682773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2923199257573688</v>
+        <v>0.2927359836862494</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3345644607173949</v>
+        <v>0.3354602930050239</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>190860</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>166976</v>
+        <v>168356</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216537</v>
+        <v>220121</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1960784544106807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.171541466286025</v>
+        <v>0.1729586126925087</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2224566387084281</v>
+        <v>0.2261386687746121</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>171</v>
@@ -3726,19 +3726,19 @@
         <v>186106</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>163266</v>
+        <v>163873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>214000</v>
+        <v>213876</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1707139378047785</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1497630218056871</v>
+        <v>0.1503190748348755</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1963003059843956</v>
+        <v>0.1961871537597659</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>355</v>
@@ -3747,19 +3747,19 @@
         <v>376967</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>339857</v>
+        <v>342264</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>411249</v>
+        <v>410187</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.182678503221101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1646948292313588</v>
+        <v>0.1658612905039857</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1992916163034686</v>
+        <v>0.1987772843246838</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>23273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14240</v>
+        <v>14818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35252</v>
+        <v>34930</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02390929917656058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0146291694527647</v>
+        <v>0.01522336702065395</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03621587395136353</v>
+        <v>0.03588530783019298</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -3797,19 +3797,19 @@
         <v>24113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15691</v>
+        <v>15097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35185</v>
+        <v>34764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02211896234607719</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01439344842770054</v>
+        <v>0.01384836893015625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03227450110986579</v>
+        <v>0.03188891160196863</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3818,19 +3818,19 @@
         <v>47386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34931</v>
+        <v>35126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63807</v>
+        <v>62790</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02296347290617931</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01692736148300364</v>
+        <v>0.01702211410197922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03092113392776936</v>
+        <v>0.030427988348073</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>120673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99800</v>
+        <v>100465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141561</v>
+        <v>144562</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1239721466796039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1025282478310245</v>
+        <v>0.1032114277232107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1454313493208884</v>
+        <v>0.1485143832314378</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>97</v>
@@ -3868,19 +3868,19 @@
         <v>103759</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87277</v>
+        <v>83457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126680</v>
+        <v>125174</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09517746385172043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08005822113084812</v>
+        <v>0.07655441631333955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1162027896138839</v>
+        <v>0.1148212036940488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>206</v>
@@ -3889,19 +3889,19 @@
         <v>224432</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>196900</v>
+        <v>199147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>255745</v>
+        <v>255814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1087600552998186</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09541804509186358</v>
+        <v>0.09650671633964304</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.123934141685821</v>
+        <v>0.1239678468676325</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>286625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>258569</v>
+        <v>260500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315441</v>
+        <v>316377</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3241707280307412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2924395909898377</v>
+        <v>0.2946234040382495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3567612355289436</v>
+        <v>0.3578198906342113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>330</v>
@@ -4014,19 +4014,19 @@
         <v>347558</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>321914</v>
+        <v>318245</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>378178</v>
+        <v>376551</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3976679307410589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3683261811850602</v>
+        <v>0.3641286969562508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4327022285919642</v>
+        <v>0.4308402973911787</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>597</v>
@@ -4035,19 +4035,19 @@
         <v>634183</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>592294</v>
+        <v>591124</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>678792</v>
+        <v>672620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3607063659847791</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3368805186781391</v>
+        <v>0.3362151359751804</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3860786642099077</v>
+        <v>0.3825682364294138</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>319459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>288819</v>
+        <v>293542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>348908</v>
+        <v>351631</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3613055699982641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3266515399509476</v>
+        <v>0.3319933172459917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3946122860587855</v>
+        <v>0.3976915649060904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>248</v>
@@ -4085,19 +4085,19 @@
         <v>267763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>239909</v>
+        <v>243027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>295343</v>
+        <v>297083</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3063677289060295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2744980388213516</v>
+        <v>0.2780663150188588</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3379246875638236</v>
+        <v>0.33991546175747</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>547</v>
@@ -4106,19 +4106,19 @@
         <v>587222</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>544711</v>
+        <v>546098</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>628197</v>
+        <v>632370</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3339958357756774</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3098168446198998</v>
+        <v>0.3106059980403066</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3573015538882832</v>
+        <v>0.3596746677286724</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>173439</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>151872</v>
+        <v>148555</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197869</v>
+        <v>199846</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1961578383864566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1717663303052724</v>
+        <v>0.1680146826556721</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2237881828149604</v>
+        <v>0.2260240329731166</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>129</v>
@@ -4156,19 +4156,19 @@
         <v>137575</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>115991</v>
+        <v>116640</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>161811</v>
+        <v>160656</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1574101940166737</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1327143558262881</v>
+        <v>0.1334567474412365</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1851408015336867</v>
+        <v>0.1838183095434751</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>296</v>
@@ -4177,19 +4177,19 @@
         <v>311014</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>278839</v>
+        <v>282011</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>346394</v>
+        <v>346109</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1768962902722252</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1585961040945039</v>
+        <v>0.1604002705381946</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1970193317306494</v>
+        <v>0.196857665481671</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>20574</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12445</v>
+        <v>12380</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31217</v>
+        <v>31235</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02326951685942594</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01407574222695942</v>
+        <v>0.01400137626782409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03530634704710548</v>
+        <v>0.03532668389371365</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4227,19 +4227,19 @@
         <v>28379</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19474</v>
+        <v>19800</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40704</v>
+        <v>41276</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03247076473676263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02228125357686666</v>
+        <v>0.02265479474050718</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0465721433366974</v>
+        <v>0.04722680804644566</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -4248,19 +4248,19 @@
         <v>48954</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36287</v>
+        <v>34549</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64004</v>
+        <v>64871</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02784347952432803</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02063892093723984</v>
+        <v>0.01965068850954793</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03640388508563852</v>
+        <v>0.03689687991423608</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>84082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68722</v>
+        <v>68490</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105303</v>
+        <v>103809</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09509634672511222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07772447375052519</v>
+        <v>0.07746205220452508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1190968066994852</v>
+        <v>0.1174066385284431</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>86</v>
@@ -4298,19 +4298,19 @@
         <v>92716</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75105</v>
+        <v>75488</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113006</v>
+        <v>112532</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1060833815994752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08593383326479739</v>
+        <v>0.08637166793326809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1292983685530306</v>
+        <v>0.1287559836747609</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>163</v>
@@ -4319,19 +4319,19 @@
         <v>176798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>153061</v>
+        <v>149711</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>203278</v>
+        <v>206528</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1005580284429902</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08705717706976521</v>
+        <v>0.08515158750595711</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1156188157489018</v>
+        <v>0.1174674049413424</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>196804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>175254</v>
+        <v>175163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>218392</v>
+        <v>220752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3919958819123797</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3490728066512884</v>
+        <v>0.3488913755065723</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4349952996795388</v>
+        <v>0.4396952143268967</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>165</v>
@@ -4444,19 +4444,19 @@
         <v>181021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>160654</v>
+        <v>158858</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>202166</v>
+        <v>202986</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4035527563734978</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3581467276433709</v>
+        <v>0.3541449596399754</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4506905463449081</v>
+        <v>0.4525182035384778</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>346</v>
@@ -4465,19 +4465,19 @@
         <v>377826</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>346553</v>
+        <v>348251</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>410760</v>
+        <v>407845</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3974491881187868</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.364552735163882</v>
+        <v>0.3663386146091055</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4320940592493117</v>
+        <v>0.4290277645542067</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>153653</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>132883</v>
+        <v>132623</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>175897</v>
+        <v>176405</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3060460612262209</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2646771478155782</v>
+        <v>0.2641592151136141</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3503534680162119</v>
+        <v>0.3513635151764689</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>135</v>
@@ -4515,19 +4515,19 @@
         <v>145040</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127326</v>
+        <v>123829</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>167004</v>
+        <v>165530</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.323339354402168</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2838489915992371</v>
+        <v>0.2760532178561224</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.372303834814299</v>
+        <v>0.3690178759167026</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>281</v>
@@ -4536,19 +4536,19 @@
         <v>298693</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>267909</v>
+        <v>267334</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>327240</v>
+        <v>327702</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3142061933902321</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2818238882611211</v>
+        <v>0.2812189364802498</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3442360184907651</v>
+        <v>0.3447221778941171</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>81356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63525</v>
+        <v>65155</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>99335</v>
+        <v>98823</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1620454463770753</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1265301411052064</v>
+        <v>0.129775715310521</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1978567142916247</v>
+        <v>0.1968360710256159</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -4586,19 +4586,19 @@
         <v>76494</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61233</v>
+        <v>61424</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>93612</v>
+        <v>94862</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1705278517684113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1365071668772109</v>
+        <v>0.1369324916030715</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2086893347799393</v>
+        <v>0.2114758547288561</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>142</v>
@@ -4607,19 +4607,19 @@
         <v>157850</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>135062</v>
+        <v>136110</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>184236</v>
+        <v>184807</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1660480124793083</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1420771764337381</v>
+        <v>0.1431788555747398</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1938044998662812</v>
+        <v>0.194405813538731</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>19554</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12285</v>
+        <v>11615</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30041</v>
+        <v>30364</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03894686879844646</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02446903197417911</v>
+        <v>0.02313536298924872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05983552528117913</v>
+        <v>0.06047918803785252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -4657,19 +4657,19 @@
         <v>16649</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9801</v>
+        <v>9610</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26997</v>
+        <v>26744</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03711585083493728</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02185048887623671</v>
+        <v>0.02142338932039966</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06018371716526064</v>
+        <v>0.0596199667803529</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -4678,19 +4678,19 @@
         <v>36203</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24654</v>
+        <v>25903</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50910</v>
+        <v>51251</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03808287207874154</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02593481039274737</v>
+        <v>0.02724825928867082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05355369045707187</v>
+        <v>0.05391267427015203</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>50691</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37569</v>
+        <v>37012</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67036</v>
+        <v>66292</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1009657416858776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07483076210110834</v>
+        <v>0.07372164295018729</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.13352241423627</v>
+        <v>0.1320401312537485</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -4728,19 +4728,19 @@
         <v>29365</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19989</v>
+        <v>19736</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>43244</v>
+        <v>42397</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06546418662098556</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04456068631720674</v>
+        <v>0.04399815819600741</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09640387956229352</v>
+        <v>0.09451535331238484</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>67</v>
@@ -4749,19 +4749,19 @@
         <v>80056</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62673</v>
+        <v>62991</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>101369</v>
+        <v>103504</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0842137339329312</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06592855471010597</v>
+        <v>0.06626254152017226</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1066338652980404</v>
+        <v>0.1088794952405612</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>1179770</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1120269</v>
+        <v>1125562</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1233581</v>
+        <v>1238586</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3467331758502025</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3292458172020354</v>
+        <v>0.3308014636285088</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3625481180447955</v>
+        <v>0.3640189902102883</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1315</v>
@@ -4874,19 +4874,19 @@
         <v>1419948</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1359737</v>
+        <v>1356936</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1485607</v>
+        <v>1481365</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4029077362588736</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3858230076825326</v>
+        <v>0.3850284201310015</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4215383535385076</v>
+        <v>0.4203348495761955</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2410</v>
@@ -4895,19 +4895,19 @@
         <v>2599718</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2518633</v>
+        <v>2523852</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2684901</v>
+        <v>2688140</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3753140170674478</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3636080666949248</v>
+        <v>0.3643615792587854</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3876117445579859</v>
+        <v>0.3880792402059586</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>1118348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1057526</v>
+        <v>1064320</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1171972</v>
+        <v>1175144</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3286812464585969</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3108058448359745</v>
+        <v>0.3128025676379452</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3444414449432446</v>
+        <v>0.3453735750703625</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>991</v>
@@ -4945,19 +4945,19 @@
         <v>1062529</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1006067</v>
+        <v>999474</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1117619</v>
+        <v>1119333</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3014908578356</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2854699065169794</v>
+        <v>0.283599075111806</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3171224313498526</v>
+        <v>0.3176088638715847</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2053</v>
@@ -4966,19 +4966,19 @@
         <v>2180877</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2100196</v>
+        <v>2098618</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2259191</v>
+        <v>2252307</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3148471519108965</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3031994793107006</v>
+        <v>0.3029716057420684</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3261531471712276</v>
+        <v>0.3251592917535589</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>636187</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>590893</v>
+        <v>590739</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>681057</v>
+        <v>686225</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1869747943617303</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1736627906167308</v>
+        <v>0.1736176837655191</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2001619571959822</v>
+        <v>0.2016808467749293</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>554</v>
@@ -5016,19 +5016,19 @@
         <v>600171</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>553600</v>
+        <v>552283</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>649889</v>
+        <v>645042</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1702974121633985</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1570831960890902</v>
+        <v>0.1567093121582479</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1844048705715879</v>
+        <v>0.1830296942495933</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1161</v>
@@ -5037,19 +5037,19 @@
         <v>1236358</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1171156</v>
+        <v>1169847</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1302623</v>
+        <v>1301943</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1784895724203004</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1690764826521181</v>
+        <v>0.1688875000027385</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1880560837098529</v>
+        <v>0.1879579452140223</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>87659</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>69082</v>
+        <v>71527</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>106503</v>
+        <v>108317</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02576287184015262</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02030300671421523</v>
+        <v>0.02102170550692262</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03130103570677934</v>
+        <v>0.03183438099365517</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>87</v>
@@ -5087,19 +5087,19 @@
         <v>93038</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>75673</v>
+        <v>73228</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>115712</v>
+        <v>111883</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02639930365963547</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02147208036519871</v>
+        <v>0.02077822840604059</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03283305835555388</v>
+        <v>0.03174670201644807</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>169</v>
@@ -5108,19 +5108,19 @@
         <v>180697</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>154394</v>
+        <v>156618</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>208550</v>
+        <v>210957</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02608667956816885</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02228949212866519</v>
+        <v>0.02261053039236255</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03010778328386395</v>
+        <v>0.03045524457563151</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>380566</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>342599</v>
+        <v>339346</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>419111</v>
+        <v>420884</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1118479114893176</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1006893564689625</v>
+        <v>0.09973334528536699</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.123176284002028</v>
+        <v>0.1236974193491674</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>321</v>
@@ -5158,19 +5158,19 @@
         <v>348565</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>310358</v>
+        <v>312405</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>383894</v>
+        <v>383913</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09890469008249243</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0880634652218225</v>
+        <v>0.08864445344920471</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1089293390010523</v>
+        <v>0.1089346180023235</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>661</v>
@@ -5179,19 +5179,19 @@
         <v>729131</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>674428</v>
+        <v>680207</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>781346</v>
+        <v>790838</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1052625790331865</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09736533380218754</v>
+        <v>0.09819966540302708</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1128007784995866</v>
+        <v>0.1141711479029962</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>346704</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>315121</v>
+        <v>314226</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>376722</v>
+        <v>379340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3084945483078698</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2803918097133157</v>
+        <v>0.2795955324638199</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.335204251610626</v>
+        <v>0.3375333933388354</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>388</v>
@@ -5544,19 +5544,19 @@
         <v>415848</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>383403</v>
+        <v>382689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>452290</v>
+        <v>452221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3311295652324227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3052943357152537</v>
+        <v>0.3047258396606984</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3601470196125083</v>
+        <v>0.3600919289110932</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>715</v>
@@ -5565,19 +5565,19 @@
         <v>762553</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>717724</v>
+        <v>715659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>809063</v>
+        <v>807602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3204397785498023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3016020216539738</v>
+        <v>0.300734215495348</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3399843146841891</v>
+        <v>0.3393704045967387</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>445356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415891</v>
+        <v>412299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>478062</v>
+        <v>477657</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.396273818568807</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3700564141200052</v>
+        <v>0.366860326026314</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4253753268565028</v>
+        <v>0.4250149007138495</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>461</v>
@@ -5615,19 +5615,19 @@
         <v>484633</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>449756</v>
+        <v>448007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>522010</v>
+        <v>520201</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3859012708565723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.358129202283802</v>
+        <v>0.3567369856679259</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4156634897507007</v>
+        <v>0.4142230709430434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>882</v>
@@ -5636,19 +5636,19 @@
         <v>929989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>874878</v>
+        <v>881872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>978081</v>
+        <v>980387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3907998897870851</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3676411355015545</v>
+        <v>0.3705799216077041</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4110091608296808</v>
+        <v>0.4119779542711888</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>195075</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>171036</v>
+        <v>168966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>221804</v>
+        <v>220490</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1735760878836187</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1521860936861979</v>
+        <v>0.1503446660383445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1973595709088435</v>
+        <v>0.1961903961216054</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>231</v>
@@ -5686,19 +5686,19 @@
         <v>238756</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>209948</v>
+        <v>211451</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>266021</v>
+        <v>269570</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1901155089307281</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1671765651771712</v>
+        <v>0.1683734270445023</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2118254002028258</v>
+        <v>0.2146515261581061</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>418</v>
@@ -5707,19 +5707,19 @@
         <v>433831</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>391805</v>
+        <v>398989</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>467773</v>
+        <v>472598</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1823044751048219</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1646444174163793</v>
+        <v>0.1676632700266254</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1965674153372437</v>
+        <v>0.1985950800698885</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>32531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23029</v>
+        <v>22999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46472</v>
+        <v>45848</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02894608838165658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02049128156004088</v>
+        <v>0.02046389627379586</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04135072946123911</v>
+        <v>0.04079548228363225</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -5757,19 +5757,19 @@
         <v>21882</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13550</v>
+        <v>13626</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31957</v>
+        <v>32224</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01742403162558223</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01078966309468645</v>
+        <v>0.01085036398524066</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02544660624673789</v>
+        <v>0.02565941951812212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -5778,19 +5778,19 @@
         <v>54413</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40372</v>
+        <v>41281</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69787</v>
+        <v>70037</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02286552651281936</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01696496754500857</v>
+        <v>0.01734717812657818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0293256942883123</v>
+        <v>0.02943108542788282</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>104192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>85800</v>
+        <v>84410</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126960</v>
+        <v>122774</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09270945685804789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07634375434988802</v>
+        <v>0.075106873621256</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1129676925555531</v>
+        <v>0.1092436806772161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -5828,19 +5828,19 @@
         <v>94728</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76826</v>
+        <v>76283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>115101</v>
+        <v>114400</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07542962335469462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06117472332565499</v>
+        <v>0.06074259429060653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09165229156394447</v>
+        <v>0.09109405041982199</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>180</v>
@@ -5849,19 +5849,19 @@
         <v>198920</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>171849</v>
+        <v>171683</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>226871</v>
+        <v>227249</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08359033004547139</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07221445784002588</v>
+        <v>0.07214454743648244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0953358363188265</v>
+        <v>0.09549468376553377</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>293863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>266031</v>
+        <v>266310</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>320591</v>
+        <v>323760</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3236888293405792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2930320276962597</v>
+        <v>0.2933386018405419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3531292195208958</v>
+        <v>0.3566191027686068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>322</v>
@@ -5974,19 +5974,19 @@
         <v>346291</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>317417</v>
+        <v>314629</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>381387</v>
+        <v>375852</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3452154784709937</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3164314589196786</v>
+        <v>0.3136517712867704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3802026459551257</v>
+        <v>0.37468461139216</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>609</v>
@@ -5995,19 +5995,19 @@
         <v>640155</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>598973</v>
+        <v>600289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>680897</v>
+        <v>686100</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3349886793241265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3134385895052411</v>
+        <v>0.3141274510693684</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3563090104537528</v>
+        <v>0.3590317512949789</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>338171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307373</v>
+        <v>309981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>364787</v>
+        <v>365649</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.37249297646357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3385692108309206</v>
+        <v>0.3414417295184857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4018106709755325</v>
+        <v>0.4027604708462813</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>350</v>
@@ -6045,19 +6045,19 @@
         <v>366688</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>337334</v>
+        <v>339365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>400265</v>
+        <v>399295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3655486909162062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3362860780552807</v>
+        <v>0.3383108953777039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3990214796120122</v>
+        <v>0.3980542244710454</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>677</v>
@@ -6066,19 +6066,19 @@
         <v>704858</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>660498</v>
+        <v>663093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>748081</v>
+        <v>749092</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3688477558603662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.345634167694398</v>
+        <v>0.3469922295857703</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3914656059181316</v>
+        <v>0.3919948868473413</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>191137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>167046</v>
+        <v>166169</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>215181</v>
+        <v>217015</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2105364058559639</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1839997285217419</v>
+        <v>0.1830346049807398</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2370208864897184</v>
+        <v>0.2390402266399275</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>196</v>
@@ -6116,19 +6116,19 @@
         <v>201064</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>175181</v>
+        <v>177142</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>224867</v>
+        <v>228265</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2004396653200193</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1746370138845072</v>
+        <v>0.1765919985771293</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2241688779841445</v>
+        <v>0.2275556104587987</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>379</v>
@@ -6137,19 +6137,19 @@
         <v>392201</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>359187</v>
+        <v>355265</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>432487</v>
+        <v>424666</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2052363866710096</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.187960117206234</v>
+        <v>0.1859080339123815</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2263177572255154</v>
+        <v>0.2222250666004661</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>24277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16341</v>
+        <v>16730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36180</v>
+        <v>36553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02674111248010496</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01799897045260036</v>
+        <v>0.01842759138555395</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0398515689577962</v>
+        <v>0.04026290946989591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -6187,19 +6187,19 @@
         <v>25370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16891</v>
+        <v>17619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37088</v>
+        <v>36452</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02529119742687403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01683873126396075</v>
+        <v>0.01756382040306602</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03697314653981685</v>
+        <v>0.03633865353405903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -6208,19 +6208,19 @@
         <v>49647</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37555</v>
+        <v>37018</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65779</v>
+        <v>66388</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02598001759296583</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01965208770662551</v>
+        <v>0.01937120139265799</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03442175871887924</v>
+        <v>0.03474017351759828</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>60409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46913</v>
+        <v>47422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76991</v>
+        <v>76833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06654067585978202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05167398294389139</v>
+        <v>0.05223453756646365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08480513976163638</v>
+        <v>0.08463143248125776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -6258,19 +6258,19 @@
         <v>63703</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49463</v>
+        <v>48665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82115</v>
+        <v>82145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06350496786590677</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04930954228582494</v>
+        <v>0.04851397283361971</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08185989935533679</v>
+        <v>0.08189001568889927</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>114</v>
@@ -6279,19 +6279,19 @@
         <v>124112</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>104367</v>
+        <v>105056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>150532</v>
+        <v>149599</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06494716055153185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05461468949840082</v>
+        <v>0.0549749727666736</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07877245758291417</v>
+        <v>0.07828430797854781</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>288151</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>260054</v>
+        <v>260394</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>319122</v>
+        <v>315303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3510772039282797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.316844999115778</v>
+        <v>0.3172591875295268</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3888116405528504</v>
+        <v>0.3841590301907131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>229</v>
@@ -6404,19 +6404,19 @@
         <v>252409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>225759</v>
+        <v>227026</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>280295</v>
+        <v>280166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3273537317951147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2927907794040288</v>
+        <v>0.2944338387604649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3635192485516314</v>
+        <v>0.3633519634873453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>505</v>
@@ -6425,19 +6425,19 @@
         <v>540560</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>503265</v>
+        <v>500155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>578145</v>
+        <v>576002</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3395858426664084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3161566279478376</v>
+        <v>0.3142029965489277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3631969891199646</v>
+        <v>0.3618508808446934</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>271266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243378</v>
+        <v>242107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298184</v>
+        <v>299289</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3305053928783119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2965266307416246</v>
+        <v>0.2949783614272722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3633011159990227</v>
+        <v>0.3646480897469399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>275</v>
@@ -6475,19 +6475,19 @@
         <v>286580</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>259524</v>
+        <v>261761</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>314170</v>
+        <v>315507</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3716703738928073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3365812987978906</v>
+        <v>0.3394828112725555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4074528222613944</v>
+        <v>0.4091861265758507</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>538</v>
@@ -6496,19 +6496,19 @@
         <v>557846</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>517984</v>
+        <v>519554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>596483</v>
+        <v>599421</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3504452088344399</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.32540356818528</v>
+        <v>0.3263895883128183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.374717483649978</v>
+        <v>0.3765628309552483</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>175056</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>151747</v>
+        <v>152417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>200325</v>
+        <v>200460</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2132846454971218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1848856563500306</v>
+        <v>0.1857022692318187</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2440723173378394</v>
+        <v>0.2442369540130294</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>135</v>
@@ -6546,19 +6546,19 @@
         <v>134736</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114377</v>
+        <v>115197</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>156457</v>
+        <v>153762</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1747411861743991</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1483375226860382</v>
+        <v>0.1494006901122658</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2029116789438808</v>
+        <v>0.199416393651845</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>298</v>
@@ -6567,19 +6567,19 @@
         <v>309792</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>280027</v>
+        <v>280412</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>345048</v>
+        <v>347921</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1946146627528818</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.175916303552608</v>
+        <v>0.1761580043192182</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2167629091536905</v>
+        <v>0.2185678960437634</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>21969</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13434</v>
+        <v>14148</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33139</v>
+        <v>32544</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02676619037035696</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01636804775422236</v>
+        <v>0.01723753369321127</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04037572709934931</v>
+        <v>0.03965090653953213</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -6617,19 +6617,19 @@
         <v>13728</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7323</v>
+        <v>7804</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23451</v>
+        <v>21969</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0178041053074099</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009497882803454351</v>
+        <v>0.01012079803667204</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03041389838271627</v>
+        <v>0.02849258146876315</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -6638,19 +6638,19 @@
         <v>35697</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25646</v>
+        <v>25192</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48428</v>
+        <v>49101</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02242506540602376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01611138111135008</v>
+        <v>0.01582595501813258</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03042279834104796</v>
+        <v>0.03084602066557737</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>64320</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50680</v>
+        <v>50308</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82307</v>
+        <v>82954</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07836656732592964</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06174708572583653</v>
+        <v>0.06129417241369074</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.100281235247526</v>
+        <v>0.1010696665005341</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>76</v>
@@ -6688,19 +6688,19 @@
         <v>83606</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66982</v>
+        <v>67449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103647</v>
+        <v>103100</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.108430602830269</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08687015714537397</v>
+        <v>0.08747520967039478</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.134421530416015</v>
+        <v>0.1337120266091905</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>137</v>
@@ -6709,19 +6709,19 @@
         <v>147927</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126257</v>
+        <v>123651</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>175459</v>
+        <v>174474</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09292922034024614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0793160605725351</v>
+        <v>0.07767903010203102</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1102252209669532</v>
+        <v>0.1096064019479273</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>188820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>166703</v>
+        <v>165466</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211209</v>
+        <v>209029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3771859850812964</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3330053730320311</v>
+        <v>0.3305356697266565</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4219116726314208</v>
+        <v>0.4175565323289368</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -6834,19 +6834,19 @@
         <v>196599</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>172879</v>
+        <v>172321</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>218841</v>
+        <v>218433</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4031511826358822</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3545108050755269</v>
+        <v>0.3533656591167608</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4487614673419386</v>
+        <v>0.4479244919875429</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>349</v>
@@ -6855,19 +6855,19 @@
         <v>385419</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>353746</v>
+        <v>353726</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>417130</v>
+        <v>416795</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3899985353603079</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3579498116452514</v>
+        <v>0.3579288830994623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4220868909036685</v>
+        <v>0.4217472606012581</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>158223</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>136255</v>
+        <v>139382</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>180237</v>
+        <v>181234</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.316066072885747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2721838167519829</v>
+        <v>0.278430085571689</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3600417075830234</v>
+        <v>0.3620324851523045</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>140</v>
@@ -6905,19 +6905,19 @@
         <v>149500</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>129479</v>
+        <v>129684</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>171185</v>
+        <v>170786</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3065689077064094</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2655131148954969</v>
+        <v>0.2659336695979052</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.35103640611035</v>
+        <v>0.3502176333636318</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>290</v>
@@ -6926,19 +6926,19 @@
         <v>307723</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>277741</v>
+        <v>277458</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>337326</v>
+        <v>338370</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3113796881158052</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2810409419413336</v>
+        <v>0.2807549071905757</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3413337865990814</v>
+        <v>0.3423902907396053</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>73364</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57086</v>
+        <v>58254</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90025</v>
+        <v>92766</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1465526776161251</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1140347177612385</v>
+        <v>0.1163678508199633</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1798336901312917</v>
+        <v>0.185309304278411</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -6976,19 +6976,19 @@
         <v>76127</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60611</v>
+        <v>60349</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95373</v>
+        <v>92198</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1561073528357897</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1242908780310738</v>
+        <v>0.1237540019169628</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1955733826996675</v>
+        <v>0.1890635946224897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>142</v>
@@ -6997,19 +6997,19 @@
         <v>149491</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>129488</v>
+        <v>124004</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>172795</v>
+        <v>172547</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1512674407676174</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1310264988867311</v>
+        <v>0.1254774358053102</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1748482085492551</v>
+        <v>0.174597159442642</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>14324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8082</v>
+        <v>7994</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25199</v>
+        <v>25023</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02861264166016525</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01614368582527533</v>
+        <v>0.01596794709556703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05033823861435532</v>
+        <v>0.04998606589421194</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -7047,19 +7047,19 @@
         <v>9504</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4746</v>
+        <v>4816</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17225</v>
+        <v>17311</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01948871393402321</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009731706615348468</v>
+        <v>0.009875826838878185</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03532134836268398</v>
+        <v>0.03549902061163324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -7068,19 +7068,19 @@
         <v>23827</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14974</v>
+        <v>15434</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34502</v>
+        <v>36050</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02411043124996116</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0151515365291998</v>
+        <v>0.01561714013731154</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0349121495415312</v>
+        <v>0.03647884352227371</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>65870</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>51751</v>
+        <v>51456</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81910</v>
+        <v>81741</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1315826227566662</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1033774766825727</v>
+        <v>0.1027887252094414</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1636237276932068</v>
+        <v>0.1632855746150992</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -7118,19 +7118,19 @@
         <v>55926</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42318</v>
+        <v>42925</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>72543</v>
+        <v>70262</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1146838428878954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08677853138276483</v>
+        <v>0.08802254225385613</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1487579198815514</v>
+        <v>0.1440809939181394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>114</v>
@@ -7139,19 +7139,19 @@
         <v>121797</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>101772</v>
+        <v>100786</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>141950</v>
+        <v>143533</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1232439045063083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1029818130851946</v>
+        <v>0.1019839363115001</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1436371840819713</v>
+        <v>0.145238624936506</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>1117538</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1059514</v>
+        <v>1063485</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1178223</v>
+        <v>1171015</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3332871188959758</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3159822315168999</v>
+        <v>0.317166634180052</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3513851727787072</v>
+        <v>0.3492356642593912</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1115</v>
@@ -7264,19 +7264,19 @@
         <v>1211148</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1153582</v>
+        <v>1151373</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1269281</v>
+        <v>1269061</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3443030820019681</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3279383034490712</v>
+        <v>0.3273105039954242</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3608291291005387</v>
+        <v>0.3607664557429346</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2178</v>
@@ -7285,19 +7285,19 @@
         <v>2328686</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2252671</v>
+        <v>2250675</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2410876</v>
+        <v>2411857</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3389270522189413</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3278634504077527</v>
+        <v>0.3275730293832324</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3508892629181856</v>
+        <v>0.3510320412084491</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>1213016</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1159422</v>
+        <v>1158201</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1271016</v>
+        <v>1267634</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3617616884520775</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3457780886071113</v>
+        <v>0.3454139697632976</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3790591477508826</v>
+        <v>0.3780506260227656</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1226</v>
@@ -7335,19 +7335,19 @@
         <v>1287401</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1234078</v>
+        <v>1232492</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1351290</v>
+        <v>1347340</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3659802450647563</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3508216641415079</v>
+        <v>0.3503707605948504</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3841424655452935</v>
+        <v>0.383019725904966</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2387</v>
@@ -7356,19 +7356,19 @@
         <v>2500417</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2415945</v>
+        <v>2416314</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2577779</v>
+        <v>2578506</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3639214976113621</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3516271238885391</v>
+        <v>0.3516808349762549</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3751810900207901</v>
+        <v>0.3752868751658615</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>634633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>588968</v>
+        <v>588471</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>681627</v>
+        <v>678037</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1892685530917732</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1756497433947906</v>
+        <v>0.1755017522150343</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2032837478497597</v>
+        <v>0.2022132777065421</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>637</v>
@@ -7406,19 +7406,19 @@
         <v>650683</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>599846</v>
+        <v>607104</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>693871</v>
+        <v>701467</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1849750539245105</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1705231815680637</v>
+        <v>0.172586485052093</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1972525665449568</v>
+        <v>0.1994118921750662</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1237</v>
@@ -7427,19 +7427,19 @@
         <v>1285315</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1221795</v>
+        <v>1215967</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1349324</v>
+        <v>1347417</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1870703749758355</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1778253238104464</v>
+        <v>0.1769770544374576</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1963863980849166</v>
+        <v>0.1961089585766245</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>93101</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>74819</v>
+        <v>75391</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>113693</v>
+        <v>112886</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02776570858006952</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02231356156353704</v>
+        <v>0.02248411498322039</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03390709758103364</v>
+        <v>0.03366630606375606</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>69</v>
@@ -7477,19 +7477,19 @@
         <v>70484</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>56937</v>
+        <v>55153</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>87705</v>
+        <v>87897</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02003700256068976</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01618582323347225</v>
+        <v>0.01567881535423032</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02493259222051461</v>
+        <v>0.0249872317708518</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>158</v>
@@ -7498,19 +7498,19 @@
         <v>163584</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>139894</v>
+        <v>137895</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>188350</v>
+        <v>189392</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02380877933087911</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02036075882461212</v>
+        <v>0.02006982599304779</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02741324421251747</v>
+        <v>0.02756488296393381</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>294793</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>265666</v>
+        <v>261652</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>330319</v>
+        <v>329095</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08791693098010392</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07923036844905638</v>
+        <v>0.07803331054886831</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09851211676312605</v>
+        <v>0.09814719388165426</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>267</v>
@@ -7548,19 +7548,19 @@
         <v>297964</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>267261</v>
+        <v>265151</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>333141</v>
+        <v>338534</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08470461644807535</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07597655834914223</v>
+        <v>0.07537655998064208</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09470472454676812</v>
+        <v>0.09623799974061013</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>545</v>
@@ -7569,19 +7569,19 @@
         <v>592756</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>544910</v>
+        <v>548200</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>639626</v>
+        <v>640800</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08627229586298203</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07930851979346797</v>
+        <v>0.07978745651176912</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09309398809831351</v>
+        <v>0.09326485785720669</v>
       </c>
     </row>
     <row r="33">
